--- a/part_c.xlsx
+++ b/part_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/balajijayasankar/Desktop/cse_534/assignment_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAFB5AD-B432-7A41-9A22-052B73BF640F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D60B40-0A3F-2A49-8C8E-346AFE6E4264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{FCAE9550-FA00-ED42-A256-9C21787583E7}"/>
   </bookViews>
@@ -158,13 +158,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>DNS</a:t>
+              <a:t>DNS query time</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> query times</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -201,7 +196,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -277,7 +272,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0F74-1947-8C19-62DDE3CE48A2}"/>
+              <c16:uniqueId val="{00000000-DFE6-9744-9112-7B5F4BE48805}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -354,7 +349,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0F74-1947-8C19-62DDE3CE48A2}"/>
+              <c16:uniqueId val="{00000001-DFE6-9744-9112-7B5F4BE48805}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -431,7 +426,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0F74-1947-8C19-62DDE3CE48A2}"/>
+              <c16:uniqueId val="{00000002-DFE6-9744-9112-7B5F4BE48805}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -443,17 +438,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1302594399"/>
-        <c:axId val="1302596047"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1327783951"/>
+        <c:axId val="1791635104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1302594399"/>
+        <c:axId val="1327783951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -491,7 +487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1302596047"/>
+        <c:crossAx val="1791635104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,12 +495,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1302596047"/>
+        <c:axId val="1791635104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -550,7 +546,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1302594399"/>
+        <c:crossAx val="1327783951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -671,7 +667,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -875,23 +871,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -996,8 +991,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1129,20 +1124,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1180,22 +1174,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E530FB6-5A33-EEE0-10F8-1BA7FFA5148C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A668DB-3DB0-242E-9432-DAAD7A104744}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1510,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1607,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>